--- a/Helsinki VRP-ADV version 2/input/test_input_2.xlsx
+++ b/Helsinki VRP-ADV version 2/input/test_input_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skema-my.sharepoint.com/personal/ade_fajemisin_skema_edu/Documents/Research/URBANE project/Helsinki/Helsinki VRP-ADV version 2/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skema-my.sharepoint.com/personal/ade_fajemisin_skema_edu/Documents/Research/URBANE project/Helsinki/Version 2 -  development notebooks and files/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{7C42318D-A969-49FE-AFB4-644790E11018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FDAE198-316A-4645-A76B-97644591C2C2}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{7C42318D-A969-49FE-AFB4-644790E11018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{943DA6C5-0C12-4EF5-BAE1-84626D61F85C}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="5415" windowWidth="21600" windowHeight="11265" xr2:uid="{D8AD338E-4AE0-4BFB-9022-1527AFFD4D4F}"/>
+    <workbookView xWindow="4410" yWindow="2710" windowWidth="14400" windowHeight="7360" xr2:uid="{D8AD338E-4AE0-4BFB-9022-1527AFFD4D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="problem_input" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>earliest</t>
   </si>
@@ -88,10 +88,13 @@
     <t>Oil</t>
   </si>
   <si>
-    <t>average service time per parcel (seconds)</t>
-  </si>
-  <si>
     <t>postcode</t>
+  </si>
+  <si>
+    <t>service rate (per minute)</t>
+  </si>
+  <si>
+    <t>customer arrival rate (per minute)</t>
   </si>
 </sst>
 </file>
@@ -161,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -170,6 +173,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,10 +191,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,21 +490,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016676DF-EFE2-4210-9072-D20908DDF61F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -513,8 +515,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1530</v>
       </c>
@@ -527,8 +532,11 @@
       <c r="D2">
         <v>600</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>100</v>
       </c>
@@ -541,8 +549,11 @@
       <c r="D3">
         <v>900</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>120</v>
       </c>
@@ -555,8 +566,11 @@
       <c r="D4">
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>150</v>
       </c>
@@ -569,8 +583,11 @@
       <c r="D5">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>180</v>
       </c>
@@ -583,8 +600,11 @@
       <c r="D6">
         <v>900</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>220</v>
       </c>
@@ -596,6 +616,9 @@
       </c>
       <c r="D7">
         <v>600</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -611,14 +634,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -629,7 +652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -640,7 +663,7 @@
         <v>0.10015989987783461</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -651,7 +674,7 @@
         <v>3.4707078203146745E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -662,7 +685,7 @@
         <v>0.21728145051358205</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -673,7 +696,7 @@
         <v>3.8183367582618866E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -684,7 +707,7 @@
         <v>1.7596454845186415E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -695,7 +718,7 @@
         <v>1.7596454845186415E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -706,7 +729,7 @@
         <v>0.337500373414169</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -727,16 +750,16 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -744,10 +767,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1.42</v>
       </c>
@@ -755,11 +778,17 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{9860db96-b53f-4bd7-8137-e09357cab268}" enabled="1" method="Standard" siteId="{b78d03e6-f6a2-4cff-83be-847d1a6453f9}" removed="0"/>
+</clbl:labelList>
 </file>